--- a/taysec/leng.xlsx
+++ b/taysec/leng.xlsx
@@ -16,18 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Русский</t>
-  </si>
-  <si>
-    <t>Каталог ТрипТриков</t>
-  </si>
-  <si>
-    <t>Задать вопрос</t>
-  </si>
-  <si>
-    <t>Личный кабинет Локала</t>
   </si>
   <si>
     <t>Пароль ввведен верно, добро пожаловать.</t>
@@ -119,6 +110,24 @@
   </si>
   <si>
     <t>Регистрация отменена</t>
+  </si>
+  <si>
+    <t>🌐 Каталог TripTricks©</t>
+  </si>
+  <si>
+    <t>💬 Задать вопрос</t>
+  </si>
+  <si>
+    <t>У вас закончились бесплатные ТрипТрики, можете пройти опрос для получения еще 5 ТрипТриков или пройти регистрацию по номеру телефона в личном кабинете и получить еще 5 ТрипТриков</t>
+  </si>
+  <si>
+    <t>Пройти опрос</t>
+  </si>
+  <si>
+    <t>Поздравляю, вы прошли опрос и получили свои 5 Трип Триков!</t>
+  </si>
+  <si>
+    <t>🛫 Личный кабинет</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,17 +489,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -498,152 +507,158 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -768,9 +783,9 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/taysec/leng.xlsx
+++ b/taysec/leng.xlsx
@@ -127,7 +127,7 @@
     <t>Поздравляю, вы прошли опрос и получили свои 5 Трип Триков!</t>
   </si>
   <si>
-    <t>🛫 Личный кабинет</t>
+    <t>🛫 Путешествовать бесплатно</t>
   </si>
 </sst>
 </file>

--- a/taysec/leng.xlsx
+++ b/taysec/leng.xlsx
@@ -27,107 +27,108 @@
     <t>Добро пожаловать в главное меню.</t>
   </si>
   <si>
+    <t>Выберите категорию ТрипТриков для просмотра</t>
+  </si>
+  <si>
+    <t>Простите но вы исчерпали доступное кол-во бесплатных трип триков на сегодня и платных ТрипТриков у вас нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🔐 Открыть TripTrick </t>
+  </si>
+  <si>
+    <t>Закрыть TripTrick</t>
+  </si>
+  <si>
+    <t>Осталось бесплатных трип триков на сегодня:</t>
+  </si>
+  <si>
+    <t>Осталось всего бесплатных трип триков:</t>
+  </si>
+  <si>
+    <t>➕ Следующий TripTrick</t>
+  </si>
+  <si>
+    <t>В этой категории больше нет TripTrick</t>
+  </si>
+  <si>
+    <t>Был ли вам полезен TripTrick?</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Можете задать вопрос администратору (Юзернейм администратора)</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в личный кабинет</t>
+  </si>
+  <si>
+    <t>Регистрация по номеру телефона</t>
+  </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>F.A.Q.</t>
+  </si>
+  <si>
+    <t>ТрипТрикс оферы</t>
+  </si>
+  <si>
+    <t>Настройка уведомлений</t>
+  </si>
+  <si>
+    <t>Управление моими ТрипТриками</t>
+  </si>
+  <si>
+    <t>В разработке</t>
+  </si>
+  <si>
+    <t>Информация</t>
+  </si>
+  <si>
+    <t>Регистрация нужна для получения 5 бесплатных трип триков, возможности отключать уведомления о новых ТрипТриках и возможность предлагать свои ТрипТрики!</t>
+  </si>
+  <si>
+    <t>Регистрация телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спасибо за регистрацию телефона, вам начисленно 5 бесплатных ТрипТриков. </t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>Регистрация отменена</t>
+  </si>
+  <si>
+    <t>🌐 Каталог TripTricks©</t>
+  </si>
+  <si>
+    <t>💬 Задать вопрос</t>
+  </si>
+  <si>
+    <t>У вас закончились бесплатные ТрипТрики, можете пройти опрос для получения еще 5 ТрипТриков или пройти регистрацию по номеру телефона в личном кабинете и получить еще 5 ТрипТриков</t>
+  </si>
+  <si>
+    <t>Пройти опрос</t>
+  </si>
+  <si>
+    <t>Поздравляю, вы прошли опрос и получили свои 5 Трип Триков!</t>
+  </si>
+  <si>
+    <t>🛫 Путешествовать бесплатно</t>
+  </si>
+  <si>
     <t>Чтобы добавить inline-клавиатуру к выбранному сообщению, необходимо отправить её в формате: 
 Название кнопки 1 - ссылка1
 Название кнопки 2 - ссылка2
 Например:
-Спасибо, FohBot - https://telegram.org/</t>
-  </si>
-  <si>
-    <t>Выберите категорию ТрипТриков для просмотра</t>
-  </si>
-  <si>
-    <t>Простите но вы исчерпали доступное кол-во бесплатных трип триков на сегодня и платных ТрипТриков у вас нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🔐 Открыть TripTrick </t>
-  </si>
-  <si>
-    <t>Закрыть TripTrick</t>
-  </si>
-  <si>
-    <t>Осталось бесплатных трип триков на сегодня:</t>
-  </si>
-  <si>
-    <t>Осталось всего бесплатных трип триков:</t>
-  </si>
-  <si>
-    <t>➕ Следующий TripTrick</t>
-  </si>
-  <si>
-    <t>В этой категории больше нет TripTrick</t>
-  </si>
-  <si>
-    <t>Был ли вам полезен TripTrick?</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Можете задать вопрос администратору (Юзернейм администратора)</t>
-  </si>
-  <si>
-    <t>Добро пожаловать в личный кабинет</t>
-  </si>
-  <si>
-    <t>Регистрация по номеру телефона</t>
-  </si>
-  <si>
-    <t>Баланс</t>
-  </si>
-  <si>
-    <t>F.A.Q.</t>
-  </si>
-  <si>
-    <t>ТрипТрикс оферы</t>
-  </si>
-  <si>
-    <t>Настройка уведомлений</t>
-  </si>
-  <si>
-    <t>Управление моими ТрипТриками</t>
-  </si>
-  <si>
-    <t>В разработке</t>
-  </si>
-  <si>
-    <t>Информация</t>
-  </si>
-  <si>
-    <t>Регистрация нужна для получения 5 бесплатных трип триков, возможности отключать уведомления о новых ТрипТриках и возможность предлагать свои ТрипТрики!</t>
-  </si>
-  <si>
-    <t>Регистрация телефона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спасибо за регистрацию телефона, вам начисленно 5 бесплатных ТрипТриков. </t>
-  </si>
-  <si>
-    <t>Отмена</t>
-  </si>
-  <si>
-    <t>Регистрация отменена</t>
-  </si>
-  <si>
-    <t>🌐 Каталог TripTricks©</t>
-  </si>
-  <si>
-    <t>💬 Задать вопрос</t>
-  </si>
-  <si>
-    <t>У вас закончились бесплатные ТрипТрики, можете пройти опрос для получения еще 5 ТрипТриков или пройти регистрацию по номеру телефона в личном кабинете и получить еще 5 ТрипТриков</t>
-  </si>
-  <si>
-    <t>Пройти опрос</t>
-  </si>
-  <si>
-    <t>Поздравляю, вы прошли опрос и получили свои 5 Трип Триков!</t>
-  </si>
-  <si>
-    <t>🛫 Путешествовать бесплатно</t>
+Спасибо, FohBot - https://telegram.org/ 
+Или нажмите "Не добавлять клавиатуру"</t>
   </si>
 </sst>
 </file>
@@ -471,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,17 +490,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -517,147 +518,147 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -783,9 +784,9 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
